--- a/Assets/Data/Excel/MasterReadFile.xlsx
+++ b/Assets/Data/Excel/MasterReadFile.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417238C7-4845-48FE-893D-4CEF952192DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFAF051-6C94-4D02-B369-77064E8C18CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
   <sheets>
-    <sheet name="En" sheetId="1" r:id="rId1"/>
+    <sheet name="Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Jp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,12 @@
 1、2、4
 5、7、8
 「このことを本社に報告して、公衆電話のメンテナンスを別の人に手配してもらう必要があります。」</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Public_Phone_Maintenance_Book</t>
   </si>
 </sst>
 </file>
@@ -489,9 +495,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91137-7BD2-48ED-A93D-3ECC6F638E0D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -505,55 +511,61 @@
     <col min="6" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>100000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -566,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197DB6EB-6644-40AE-94C5-77D15FDCA06D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,55 +594,61 @@
     <col min="6" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>100000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Data/Excel/MasterReadFile.xlsx
+++ b/Assets/Data/Excel/MasterReadFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFAF051-6C94-4D02-B369-77064E8C18CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4688F33-2C28-48D2-9CD3-3F7F102A95E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Public_Phone_Maintenance_Book</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91137-7BD2-48ED-A93D-3ECC6F638E0D}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,25 +552,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>100000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -578,9 +595,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197DB6EB-6644-40AE-94C5-77D15FDCA06D}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -632,23 +649,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>100000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
